--- a/Lynch correlations for BA series.xlsx
+++ b/Lynch correlations for BA series.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17766"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="lynch values" sheetId="1" r:id="rId1"/>
@@ -239,7 +239,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -353,7 +353,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1736,12 +1736,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C4:K77"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
       <selection activeCell="E24" sqref="E24:F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="3" max="3" width="16.140625" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" customWidth="1"/>
     <col min="7" max="7" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2493,7 +2496,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:K38"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A49" workbookViewId="0">
       <selection activeCell="D13" sqref="D13:E18"/>
     </sheetView>
   </sheetViews>
@@ -3247,7 +3250,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C4:L38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="F14" sqref="F14:G19"/>
     </sheetView>
   </sheetViews>
